--- a/data/case1/18/cost_3.xlsx
+++ b/data/case1/18/cost_3.xlsx
@@ -58,18 +58,18 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.51904587211644</v>
+        <v>161.52538238402889</v>
       </c>
       <c r="B1" s="0">
-        <v>4.9574377327948893</v>
+        <v>4.9610049959474267</v>
       </c>
       <c r="C1" s="0">
-        <v>3.9954337899543377</v>
+        <v>3.9955968688845402</v>
       </c>
     </row>
   </sheetData>
